--- a/Scen_NCAP_NUC.xlsx
+++ b/Scen_NCAP_NUC.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
